--- a/Conf/S7_PLC01.Main.xlsx
+++ b/Conf/S7_PLC01.Main.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1427" uniqueCount="601">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1422" uniqueCount="600">
   <si>
     <t>Tag Name</t>
   </si>
@@ -181,7 +181,7 @@
     <t>DB200.DBW86</t>
   </si>
   <si>
-    <t>CRISBELT_PLC01_PLC_PLC18_SIGNAL_1</t>
+    <t>CRISBELT_PLC01_PLC_PLC01_SIGNAL_1</t>
   </si>
   <si>
     <t>DB200.DBW4</t>
@@ -190,16 +190,13 @@
     <t>Conveyor PLC PLC</t>
   </si>
   <si>
-    <t>CRISBELT_PLC01_SYSTEM_KAL_DEVICE1_SIGNAL_1</t>
+    <t>CRISBELT_PLC01_SYSTEM_KAL_DEVICE2_SIGNAL_1</t>
   </si>
   <si>
     <t>DB200.DBW0</t>
   </si>
   <si>
     <t>Conveyor System System</t>
-  </si>
-  <si>
-    <t>CRISBELT_PLC01_SYSTEM_KAL_DEVICE2_SIGNAL_1</t>
   </si>
   <si>
     <t>CRISBELT_PLC01_SYSTEM_KAL_MAIN_SIGNAL_1</t>
@@ -2645,7 +2642,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:Q283"/>
+  <dimension ref="A1:Q282"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3146,10 +3143,10 @@
         <v>62</v>
       </c>
       <c r="B21" t="s">
-        <v>59</v>
+        <v>63</v>
       </c>
       <c r="C21" t="s">
-        <v>42</v>
+        <v>64</v>
       </c>
       <c r="D21">
         <v>1</v>
@@ -3161,41 +3158,41 @@
         <v>100</v>
       </c>
       <c r="P21" t="s">
-        <v>60</v>
+        <v>65</v>
       </c>
     </row>
     <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="B22" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="C22" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>20</v>
+      </c>
+      <c r="F22">
+        <v>100</v>
+      </c>
+      <c r="P22" t="s">
         <v>65</v>
-      </c>
-      <c r="D22">
-        <v>1</v>
-      </c>
-      <c r="E22" t="s">
-        <v>20</v>
-      </c>
-      <c r="F22">
-        <v>100</v>
-      </c>
-      <c r="P22" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="23" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B23" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C23" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D23">
         <v>1</v>
@@ -3207,41 +3204,41 @@
         <v>100</v>
       </c>
       <c r="P23" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="24" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B24" t="s">
+        <v>72</v>
+      </c>
+      <c r="C24" t="s">
+        <v>19</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>20</v>
+      </c>
+      <c r="F24">
+        <v>100</v>
+      </c>
+      <c r="P24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>65</v>
-      </c>
-      <c r="D24">
-        <v>1</v>
-      </c>
-      <c r="E24" t="s">
-        <v>20</v>
-      </c>
-      <c r="F24">
-        <v>100</v>
-      </c>
-      <c r="P24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="C25" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D25">
         <v>1</v>
@@ -3253,18 +3250,18 @@
         <v>100</v>
       </c>
       <c r="P25" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="B26" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="C26" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D26">
         <v>1</v>
@@ -3276,18 +3273,18 @@
         <v>100</v>
       </c>
       <c r="P26" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="27" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="B27" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
       <c r="C27" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D27">
         <v>1</v>
@@ -3299,18 +3296,18 @@
         <v>100</v>
       </c>
       <c r="P27" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B28" t="s">
-        <v>79</v>
+        <v>80</v>
       </c>
       <c r="C28" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D28">
         <v>1</v>
@@ -3322,18 +3319,18 @@
         <v>100</v>
       </c>
       <c r="P28" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="C29" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D29">
         <v>1</v>
@@ -3345,41 +3342,41 @@
         <v>100</v>
       </c>
       <c r="P29" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B30" t="s">
+        <v>85</v>
+      </c>
+      <c r="C30" t="s">
+        <v>19</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>20</v>
+      </c>
+      <c r="F30">
+        <v>100</v>
+      </c>
+      <c r="P30" t="s">
         <v>83</v>
-      </c>
-      <c r="C30" t="s">
-        <v>65</v>
-      </c>
-      <c r="D30">
-        <v>1</v>
-      </c>
-      <c r="E30" t="s">
-        <v>20</v>
-      </c>
-      <c r="F30">
-        <v>100</v>
-      </c>
-      <c r="P30" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B31" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="C31" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D31">
         <v>1</v>
@@ -3391,18 +3388,18 @@
         <v>100</v>
       </c>
       <c r="P31" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B32" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="C32" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D32">
         <v>1</v>
@@ -3414,18 +3411,18 @@
         <v>100</v>
       </c>
       <c r="P32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="C33" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D33">
         <v>1</v>
@@ -3437,18 +3434,18 @@
         <v>100</v>
       </c>
       <c r="P33" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C34" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D34">
         <v>1</v>
@@ -3460,18 +3457,18 @@
         <v>100</v>
       </c>
       <c r="P34" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B35" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="C35" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D35">
         <v>1</v>
@@ -3483,18 +3480,18 @@
         <v>100</v>
       </c>
       <c r="P35" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B36" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="C36" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D36">
         <v>1</v>
@@ -3506,18 +3503,18 @@
         <v>100</v>
       </c>
       <c r="P36" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B37" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="C37" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D37">
         <v>1</v>
@@ -3529,18 +3526,18 @@
         <v>100</v>
       </c>
       <c r="P37" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B38" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="C38" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D38">
         <v>1</v>
@@ -3552,18 +3549,18 @@
         <v>100</v>
       </c>
       <c r="P38" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="B39" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="C39" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D39">
         <v>1</v>
@@ -3575,18 +3572,18 @@
         <v>100</v>
       </c>
       <c r="P39" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B40" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="C40" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D40">
         <v>1</v>
@@ -3598,18 +3595,18 @@
         <v>100</v>
       </c>
       <c r="P40" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B41" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D41">
         <v>1</v>
@@ -3621,18 +3618,18 @@
         <v>100</v>
       </c>
       <c r="P41" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B42" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="C42" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D42">
         <v>1</v>
@@ -3644,18 +3641,18 @@
         <v>100</v>
       </c>
       <c r="P42" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="C43" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D43">
         <v>1</v>
@@ -3667,18 +3664,18 @@
         <v>100</v>
       </c>
       <c r="P43" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="C44" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D44">
         <v>1</v>
@@ -3690,18 +3687,18 @@
         <v>100</v>
       </c>
       <c r="P44" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="B45" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="C45" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D45">
         <v>1</v>
@@ -3713,18 +3710,18 @@
         <v>100</v>
       </c>
       <c r="P45" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="B46" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="C46" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D46">
         <v>1</v>
@@ -3736,18 +3733,18 @@
         <v>100</v>
       </c>
       <c r="P46" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="B47" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="C47" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D47">
         <v>1</v>
@@ -3759,18 +3756,18 @@
         <v>100</v>
       </c>
       <c r="P47" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="B48" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="C48" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D48">
         <v>1</v>
@@ -3782,18 +3779,18 @@
         <v>100</v>
       </c>
       <c r="P48" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="49" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="B49" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="C49" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D49">
         <v>1</v>
@@ -3805,41 +3802,41 @@
         <v>100</v>
       </c>
       <c r="P49" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="50" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="B50" t="s">
+        <v>127</v>
+      </c>
+      <c r="C50" t="s">
+        <v>19</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>20</v>
+      </c>
+      <c r="F50">
+        <v>100</v>
+      </c>
+      <c r="P50" t="s">
         <v>125</v>
-      </c>
-      <c r="C50" t="s">
-        <v>65</v>
-      </c>
-      <c r="D50">
-        <v>1</v>
-      </c>
-      <c r="E50" t="s">
-        <v>20</v>
-      </c>
-      <c r="F50">
-        <v>100</v>
-      </c>
-      <c r="P50" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>127</v>
+        <v>128</v>
       </c>
       <c r="B51" t="s">
-        <v>128</v>
+        <v>129</v>
       </c>
       <c r="C51" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D51">
         <v>1</v>
@@ -3851,18 +3848,18 @@
         <v>100</v>
       </c>
       <c r="P51" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="52" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>129</v>
+        <v>130</v>
       </c>
       <c r="B52" t="s">
-        <v>130</v>
+        <v>131</v>
       </c>
       <c r="C52" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D52">
         <v>1</v>
@@ -3874,18 +3871,18 @@
         <v>100</v>
       </c>
       <c r="P52" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>131</v>
+        <v>132</v>
       </c>
       <c r="B53" t="s">
-        <v>132</v>
+        <v>133</v>
       </c>
       <c r="C53" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D53">
         <v>1</v>
@@ -3897,18 +3894,18 @@
         <v>100</v>
       </c>
       <c r="P53" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>133</v>
+        <v>134</v>
       </c>
       <c r="B54" t="s">
-        <v>134</v>
+        <v>135</v>
       </c>
       <c r="C54" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D54">
         <v>1</v>
@@ -3920,18 +3917,18 @@
         <v>100</v>
       </c>
       <c r="P54" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="B55" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
       <c r="C55" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D55">
         <v>1</v>
@@ -3943,18 +3940,18 @@
         <v>100</v>
       </c>
       <c r="P55" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>137</v>
+        <v>138</v>
       </c>
       <c r="B56" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="C56" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D56">
         <v>1</v>
@@ -3966,18 +3963,18 @@
         <v>100</v>
       </c>
       <c r="P56" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
       <c r="B57" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
       <c r="C57" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D57">
         <v>1</v>
@@ -3989,18 +3986,18 @@
         <v>100</v>
       </c>
       <c r="P57" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B58" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="C58" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D58">
         <v>1</v>
@@ -4012,18 +4009,18 @@
         <v>100</v>
       </c>
       <c r="P58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="B59" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="C59" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D59">
         <v>1</v>
@@ -4035,18 +4032,18 @@
         <v>100</v>
       </c>
       <c r="P59" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>145</v>
+        <v>146</v>
       </c>
       <c r="B60" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="C60" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D60">
         <v>1</v>
@@ -4058,18 +4055,18 @@
         <v>100</v>
       </c>
       <c r="P60" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="B61" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="C61" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D61">
         <v>1</v>
@@ -4081,18 +4078,18 @@
         <v>100</v>
       </c>
       <c r="P61" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B62" t="s">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="C62" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D62">
         <v>1</v>
@@ -4104,18 +4101,18 @@
         <v>100</v>
       </c>
       <c r="P62" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B63" t="s">
-        <v>152</v>
+        <v>153</v>
       </c>
       <c r="C63" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D63">
         <v>1</v>
@@ -4127,18 +4124,18 @@
         <v>100</v>
       </c>
       <c r="P63" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B64" t="s">
-        <v>154</v>
+        <v>155</v>
       </c>
       <c r="C64" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D64">
         <v>1</v>
@@ -4150,18 +4147,18 @@
         <v>100</v>
       </c>
       <c r="P64" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B65" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="C65" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -4173,18 +4170,18 @@
         <v>100</v>
       </c>
       <c r="P65" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B66" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="C66" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D66">
         <v>1</v>
@@ -4196,18 +4193,18 @@
         <v>100</v>
       </c>
       <c r="P66" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B67" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="C67" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D67">
         <v>1</v>
@@ -4219,18 +4216,18 @@
         <v>100</v>
       </c>
       <c r="P67" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B68" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="C68" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D68">
         <v>1</v>
@@ -4242,18 +4239,18 @@
         <v>100</v>
       </c>
       <c r="P68" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B69" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="C69" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D69">
         <v>1</v>
@@ -4265,18 +4262,18 @@
         <v>100</v>
       </c>
       <c r="P69" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="B70" t="s">
-        <v>166</v>
+        <v>167</v>
       </c>
       <c r="C70" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D70">
         <v>1</v>
@@ -4288,18 +4285,18 @@
         <v>100</v>
       </c>
       <c r="P70" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
       <c r="B71" t="s">
-        <v>168</v>
+        <v>169</v>
       </c>
       <c r="C71" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D71">
         <v>1</v>
@@ -4311,18 +4308,18 @@
         <v>100</v>
       </c>
       <c r="P71" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>169</v>
+        <v>170</v>
       </c>
       <c r="B72" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="C72" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D72">
         <v>1</v>
@@ -4334,18 +4331,18 @@
         <v>100</v>
       </c>
       <c r="P72" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B73" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="C73" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -4357,18 +4354,18 @@
         <v>100</v>
       </c>
       <c r="P73" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="B74" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="C74" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -4380,18 +4377,18 @@
         <v>100</v>
       </c>
       <c r="P74" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="B75" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="C75" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D75">
         <v>1</v>
@@ -4403,18 +4400,18 @@
         <v>100</v>
       </c>
       <c r="P75" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="B76" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="C76" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D76">
         <v>1</v>
@@ -4426,18 +4423,18 @@
         <v>100</v>
       </c>
       <c r="P76" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="B77" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="C77" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D77">
         <v>1</v>
@@ -4449,18 +4446,18 @@
         <v>100</v>
       </c>
       <c r="P77" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="B78" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="C78" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -4472,18 +4469,18 @@
         <v>100</v>
       </c>
       <c r="P78" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="B79" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="C79" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D79">
         <v>1</v>
@@ -4495,18 +4492,18 @@
         <v>100</v>
       </c>
       <c r="P79" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="B80" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="C80" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D80">
         <v>1</v>
@@ -4518,18 +4515,18 @@
         <v>100</v>
       </c>
       <c r="P80" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="B81" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="C81" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D81">
         <v>1</v>
@@ -4541,18 +4538,18 @@
         <v>100</v>
       </c>
       <c r="P81" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="82" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="B82" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="C82" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -4564,18 +4561,18 @@
         <v>100</v>
       </c>
       <c r="P82" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="B83" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="C83" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D83">
         <v>1</v>
@@ -4587,18 +4584,18 @@
         <v>100</v>
       </c>
       <c r="P83" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B84" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="C84" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D84">
         <v>1</v>
@@ -4610,18 +4607,18 @@
         <v>100</v>
       </c>
       <c r="P84" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="B85" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="C85" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -4633,18 +4630,18 @@
         <v>100</v>
       </c>
       <c r="P85" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="B86" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="C86" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D86">
         <v>1</v>
@@ -4656,18 +4653,18 @@
         <v>100</v>
       </c>
       <c r="P86" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="B87" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="C87" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D87">
         <v>1</v>
@@ -4679,18 +4676,18 @@
         <v>100</v>
       </c>
       <c r="P87" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B88" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="C88" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D88">
         <v>1</v>
@@ -4702,18 +4699,18 @@
         <v>100</v>
       </c>
       <c r="P88" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="B89" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="C89" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D89">
         <v>1</v>
@@ -4725,18 +4722,18 @@
         <v>100</v>
       </c>
       <c r="P89" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="B90" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="C90" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D90">
         <v>1</v>
@@ -4748,18 +4745,18 @@
         <v>100</v>
       </c>
       <c r="P90" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="B91" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="C91" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D91">
         <v>1</v>
@@ -4771,18 +4768,18 @@
         <v>100</v>
       </c>
       <c r="P91" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="B92" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="C92" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D92">
         <v>1</v>
@@ -4794,18 +4791,18 @@
         <v>100</v>
       </c>
       <c r="P92" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="93" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="B93" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="C93" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D93">
         <v>1</v>
@@ -4817,18 +4814,18 @@
         <v>100</v>
       </c>
       <c r="P93" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="B94" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="C94" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D94">
         <v>1</v>
@@ -4840,18 +4837,18 @@
         <v>100</v>
       </c>
       <c r="P94" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="B95" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="C95" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D95">
         <v>1</v>
@@ -4863,18 +4860,18 @@
         <v>100</v>
       </c>
       <c r="P95" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B96" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="C96" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D96">
         <v>1</v>
@@ -4886,18 +4883,18 @@
         <v>100</v>
       </c>
       <c r="P96" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="97" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B97" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="C97" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D97">
         <v>1</v>
@@ -4909,18 +4906,18 @@
         <v>100</v>
       </c>
       <c r="P97" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="98" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="B98" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="C98" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D98">
         <v>1</v>
@@ -4932,18 +4929,18 @@
         <v>100</v>
       </c>
       <c r="P98" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="99" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="B99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="C99" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D99">
         <v>1</v>
@@ -4955,18 +4952,18 @@
         <v>100</v>
       </c>
       <c r="P99" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="100" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="B100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="C100" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D100">
         <v>1</v>
@@ -4978,18 +4975,18 @@
         <v>100</v>
       </c>
       <c r="P100" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="101" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="B101" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="C101" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D101">
         <v>1</v>
@@ -5001,18 +4998,18 @@
         <v>100</v>
       </c>
       <c r="P101" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="102" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="B102" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="C102" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D102">
         <v>1</v>
@@ -5024,18 +5021,18 @@
         <v>100</v>
       </c>
       <c r="P102" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="103" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B103" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="C103" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D103">
         <v>1</v>
@@ -5047,18 +5044,18 @@
         <v>100</v>
       </c>
       <c r="P103" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="104" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="B104" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="C104" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D104">
         <v>1</v>
@@ -5070,18 +5067,18 @@
         <v>100</v>
       </c>
       <c r="P104" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="105" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B105" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="C105" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D105">
         <v>1</v>
@@ -5093,18 +5090,18 @@
         <v>100</v>
       </c>
       <c r="P105" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="106" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B106" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="C106" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D106">
         <v>1</v>
@@ -5116,18 +5113,18 @@
         <v>100</v>
       </c>
       <c r="P106" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="107" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="B107" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="C107" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D107">
         <v>1</v>
@@ -5139,18 +5136,18 @@
         <v>100</v>
       </c>
       <c r="P107" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="108" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="B108" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="C108" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D108">
         <v>1</v>
@@ -5162,18 +5159,18 @@
         <v>100</v>
       </c>
       <c r="P108" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="109" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="B109" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="C109" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D109">
         <v>1</v>
@@ -5185,18 +5182,18 @@
         <v>100</v>
       </c>
       <c r="P109" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="110" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="B110" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="C110" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D110">
         <v>1</v>
@@ -5208,18 +5205,18 @@
         <v>100</v>
       </c>
       <c r="P110" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="111" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="B111" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="C111" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D111">
         <v>1</v>
@@ -5231,18 +5228,18 @@
         <v>100</v>
       </c>
       <c r="P111" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="112" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="B112" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="C112" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D112">
         <v>1</v>
@@ -5254,18 +5251,18 @@
         <v>100</v>
       </c>
       <c r="P112" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="113" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B113" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="C113" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D113">
         <v>1</v>
@@ -5277,18 +5274,18 @@
         <v>100</v>
       </c>
       <c r="P113" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="114" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B114" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="C114" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D114">
         <v>1</v>
@@ -5300,18 +5297,18 @@
         <v>100</v>
       </c>
       <c r="P114" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="115" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="B115" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="C115" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D115">
         <v>1</v>
@@ -5323,18 +5320,18 @@
         <v>100</v>
       </c>
       <c r="P115" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="116" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="B116" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C116" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D116">
         <v>1</v>
@@ -5346,18 +5343,18 @@
         <v>100</v>
       </c>
       <c r="P116" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="117" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="B117" t="s">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="C117" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D117">
         <v>1</v>
@@ -5369,18 +5366,18 @@
         <v>100</v>
       </c>
       <c r="P117" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="118" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="B118" t="s">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="C118" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D118">
         <v>1</v>
@@ -5392,18 +5389,18 @@
         <v>100</v>
       </c>
       <c r="P118" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="119" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B119" t="s">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="C119" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D119">
         <v>1</v>
@@ -5415,18 +5412,18 @@
         <v>100</v>
       </c>
       <c r="P119" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="120" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="B120" t="s">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="C120" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D120">
         <v>1</v>
@@ -5438,18 +5435,18 @@
         <v>100</v>
       </c>
       <c r="P120" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="121" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B121" t="s">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="C121" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D121">
         <v>1</v>
@@ -5461,18 +5458,18 @@
         <v>100</v>
       </c>
       <c r="P121" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="122" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="B122" t="s">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="C122" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D122">
         <v>1</v>
@@ -5484,18 +5481,18 @@
         <v>100</v>
       </c>
       <c r="P122" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="123" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="B123" t="s">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="C123" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D123">
         <v>1</v>
@@ -5507,18 +5504,18 @@
         <v>100</v>
       </c>
       <c r="P123" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="124" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B124" t="s">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="C124" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D124">
         <v>1</v>
@@ -5530,18 +5527,18 @@
         <v>100</v>
       </c>
       <c r="P124" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="125" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="B125" t="s">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C125" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D125">
         <v>1</v>
@@ -5553,18 +5550,18 @@
         <v>100</v>
       </c>
       <c r="P125" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="126" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B126" t="s">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="C126" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D126">
         <v>1</v>
@@ -5576,18 +5573,18 @@
         <v>100</v>
       </c>
       <c r="P126" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="127" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="B127" t="s">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="C127" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D127">
         <v>1</v>
@@ -5599,18 +5596,18 @@
         <v>100</v>
       </c>
       <c r="P127" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="128" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="B128" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="C128" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D128">
         <v>1</v>
@@ -5622,18 +5619,18 @@
         <v>100</v>
       </c>
       <c r="P128" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B129" t="s">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="C129" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D129">
         <v>1</v>
@@ -5645,18 +5642,18 @@
         <v>100</v>
       </c>
       <c r="P129" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B130" t="s">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="C130" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D130">
         <v>1</v>
@@ -5668,18 +5665,18 @@
         <v>100</v>
       </c>
       <c r="P130" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="B131" t="s">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="C131" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D131">
         <v>1</v>
@@ -5691,18 +5688,18 @@
         <v>100</v>
       </c>
       <c r="P131" t="s">
-        <v>93</v>
+        <v>125</v>
       </c>
     </row>
     <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B132" t="s">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="C132" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D132">
         <v>1</v>
@@ -5714,18 +5711,18 @@
         <v>100</v>
       </c>
       <c r="P132" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="B133" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="C133" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D133">
         <v>1</v>
@@ -5737,18 +5734,18 @@
         <v>100</v>
       </c>
       <c r="P133" t="s">
-        <v>126</v>
+        <v>92</v>
       </c>
     </row>
     <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="B134" t="s">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="C134" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D134">
         <v>1</v>
@@ -5760,18 +5757,18 @@
         <v>100</v>
       </c>
       <c r="P134" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B135" t="s">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="C135" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D135">
         <v>1</v>
@@ -5783,18 +5780,18 @@
         <v>100</v>
       </c>
       <c r="P135" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="B136" t="s">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="C136" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D136">
         <v>1</v>
@@ -5806,18 +5803,18 @@
         <v>100</v>
       </c>
       <c r="P136" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B137" t="s">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="C137" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D137">
         <v>1</v>
@@ -5829,18 +5826,18 @@
         <v>100</v>
       </c>
       <c r="P137" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="138" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="B138" t="s">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="C138" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D138">
         <v>1</v>
@@ -5852,18 +5849,18 @@
         <v>100</v>
       </c>
       <c r="P138" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B139" t="s">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="C139" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D139">
         <v>1</v>
@@ -5875,18 +5872,18 @@
         <v>100</v>
       </c>
       <c r="P139" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="140" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B140" t="s">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="C140" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D140">
         <v>1</v>
@@ -5898,18 +5895,18 @@
         <v>100</v>
       </c>
       <c r="P140" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B141" t="s">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="C141" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D141">
         <v>1</v>
@@ -5921,18 +5918,18 @@
         <v>100</v>
       </c>
       <c r="P141" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="B142" t="s">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C142" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D142">
         <v>1</v>
@@ -5944,18 +5941,18 @@
         <v>100</v>
       </c>
       <c r="P142" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B143" t="s">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="C143" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D143">
         <v>1</v>
@@ -5967,18 +5964,18 @@
         <v>100</v>
       </c>
       <c r="P143" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="144" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="B144" t="s">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="C144" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D144">
         <v>1</v>
@@ -5990,18 +5987,18 @@
         <v>100</v>
       </c>
       <c r="P144" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B145" t="s">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="C145" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D145">
         <v>1</v>
@@ -6013,18 +6010,18 @@
         <v>100</v>
       </c>
       <c r="P145" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="146" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="B146" t="s">
-        <v>318</v>
+        <v>319</v>
       </c>
       <c r="C146" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D146">
         <v>1</v>
@@ -6036,18 +6033,18 @@
         <v>100</v>
       </c>
       <c r="P146" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="147" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>319</v>
+        <v>320</v>
       </c>
       <c r="B147" t="s">
-        <v>320</v>
+        <v>321</v>
       </c>
       <c r="C147" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D147">
         <v>1</v>
@@ -6059,18 +6056,18 @@
         <v>100</v>
       </c>
       <c r="P147" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="148" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>321</v>
+        <v>322</v>
       </c>
       <c r="B148" t="s">
-        <v>322</v>
+        <v>323</v>
       </c>
       <c r="C148" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D148">
         <v>1</v>
@@ -6082,18 +6079,18 @@
         <v>100</v>
       </c>
       <c r="P148" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="149" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>323</v>
+        <v>324</v>
       </c>
       <c r="B149" t="s">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="C149" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D149">
         <v>1</v>
@@ -6105,18 +6102,18 @@
         <v>100</v>
       </c>
       <c r="P149" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="150" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>325</v>
+        <v>326</v>
       </c>
       <c r="B150" t="s">
-        <v>326</v>
+        <v>327</v>
       </c>
       <c r="C150" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D150">
         <v>1</v>
@@ -6128,18 +6125,18 @@
         <v>100</v>
       </c>
       <c r="P150" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="151" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>327</v>
+        <v>328</v>
       </c>
       <c r="B151" t="s">
-        <v>328</v>
+        <v>329</v>
       </c>
       <c r="C151" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D151">
         <v>1</v>
@@ -6151,18 +6148,18 @@
         <v>100</v>
       </c>
       <c r="P151" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="152" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>329</v>
+        <v>330</v>
       </c>
       <c r="B152" t="s">
-        <v>330</v>
+        <v>331</v>
       </c>
       <c r="C152" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D152">
         <v>1</v>
@@ -6174,18 +6171,18 @@
         <v>100</v>
       </c>
       <c r="P152" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="153" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>331</v>
+        <v>332</v>
       </c>
       <c r="B153" t="s">
-        <v>332</v>
+        <v>333</v>
       </c>
       <c r="C153" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D153">
         <v>1</v>
@@ -6197,18 +6194,18 @@
         <v>100</v>
       </c>
       <c r="P153" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="154" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>333</v>
+        <v>334</v>
       </c>
       <c r="B154" t="s">
-        <v>334</v>
+        <v>335</v>
       </c>
       <c r="C154" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D154">
         <v>1</v>
@@ -6220,18 +6217,18 @@
         <v>100</v>
       </c>
       <c r="P154" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="155" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>335</v>
+        <v>336</v>
       </c>
       <c r="B155" t="s">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="C155" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D155">
         <v>1</v>
@@ -6243,18 +6240,18 @@
         <v>100</v>
       </c>
       <c r="P155" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="156" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>337</v>
+        <v>338</v>
       </c>
       <c r="B156" t="s">
-        <v>338</v>
+        <v>339</v>
       </c>
       <c r="C156" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D156">
         <v>1</v>
@@ -6266,18 +6263,18 @@
         <v>100</v>
       </c>
       <c r="P156" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="157" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>339</v>
+        <v>340</v>
       </c>
       <c r="B157" t="s">
-        <v>340</v>
+        <v>341</v>
       </c>
       <c r="C157" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D157">
         <v>1</v>
@@ -6289,18 +6286,18 @@
         <v>100</v>
       </c>
       <c r="P157" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="158" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>341</v>
+        <v>342</v>
       </c>
       <c r="B158" t="s">
-        <v>342</v>
+        <v>343</v>
       </c>
       <c r="C158" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D158">
         <v>1</v>
@@ -6312,18 +6309,18 @@
         <v>100</v>
       </c>
       <c r="P158" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="159" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="B159" t="s">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="C159" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D159">
         <v>1</v>
@@ -6335,18 +6332,18 @@
         <v>100</v>
       </c>
       <c r="P159" t="s">
-        <v>71</v>
+        <v>92</v>
       </c>
     </row>
     <row r="160" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B160" t="s">
-        <v>346</v>
+        <v>347</v>
       </c>
       <c r="C160" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D160">
         <v>1</v>
@@ -6358,18 +6355,18 @@
         <v>100</v>
       </c>
       <c r="P160" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="161" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>348</v>
       </c>
       <c r="B161" t="s">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="C161" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D161">
         <v>1</v>
@@ -6381,18 +6378,18 @@
         <v>100</v>
       </c>
       <c r="P161" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="162" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>349</v>
+        <v>350</v>
       </c>
       <c r="B162" t="s">
-        <v>350</v>
+        <v>351</v>
       </c>
       <c r="C162" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D162">
         <v>1</v>
@@ -6404,18 +6401,18 @@
         <v>100</v>
       </c>
       <c r="P162" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="163" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>351</v>
+        <v>352</v>
       </c>
       <c r="B163" t="s">
-        <v>352</v>
+        <v>353</v>
       </c>
       <c r="C163" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D163">
         <v>1</v>
@@ -6427,18 +6424,18 @@
         <v>100</v>
       </c>
       <c r="P163" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
     </row>
     <row r="164" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B164" t="s">
-        <v>354</v>
+        <v>355</v>
       </c>
       <c r="C164" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D164">
         <v>1</v>
@@ -6450,18 +6447,18 @@
         <v>100</v>
       </c>
       <c r="P164" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="165" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>355</v>
+        <v>356</v>
       </c>
       <c r="B165" t="s">
-        <v>356</v>
+        <v>357</v>
       </c>
       <c r="C165" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D165">
         <v>1</v>
@@ -6473,18 +6470,18 @@
         <v>100</v>
       </c>
       <c r="P165" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="166" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B166" t="s">
-        <v>358</v>
+        <v>359</v>
       </c>
       <c r="C166" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D166">
         <v>1</v>
@@ -6496,18 +6493,18 @@
         <v>100</v>
       </c>
       <c r="P166" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="167" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>359</v>
+        <v>360</v>
       </c>
       <c r="B167" t="s">
-        <v>360</v>
+        <v>361</v>
       </c>
       <c r="C167" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D167">
         <v>1</v>
@@ -6519,18 +6516,18 @@
         <v>100</v>
       </c>
       <c r="P167" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="168" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>361</v>
+        <v>362</v>
       </c>
       <c r="B168" t="s">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="C168" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D168">
         <v>1</v>
@@ -6542,18 +6539,18 @@
         <v>100</v>
       </c>
       <c r="P168" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="169" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="B169" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="C169" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D169">
         <v>1</v>
@@ -6565,18 +6562,18 @@
         <v>100</v>
       </c>
       <c r="P169" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="170" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>365</v>
+        <v>366</v>
       </c>
       <c r="B170" t="s">
-        <v>366</v>
+        <v>367</v>
       </c>
       <c r="C170" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D170">
         <v>1</v>
@@ -6588,18 +6585,18 @@
         <v>100</v>
       </c>
       <c r="P170" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="171" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>367</v>
+        <v>368</v>
       </c>
       <c r="B171" t="s">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="C171" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D171">
         <v>1</v>
@@ -6611,18 +6608,18 @@
         <v>100</v>
       </c>
       <c r="P171" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="172" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>369</v>
+        <v>370</v>
       </c>
       <c r="B172" t="s">
-        <v>370</v>
+        <v>371</v>
       </c>
       <c r="C172" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D172">
         <v>1</v>
@@ -6634,18 +6631,18 @@
         <v>100</v>
       </c>
       <c r="P172" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="173" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>371</v>
+        <v>372</v>
       </c>
       <c r="B173" t="s">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="C173" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D173">
         <v>1</v>
@@ -6657,18 +6654,18 @@
         <v>100</v>
       </c>
       <c r="P173" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="174" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>373</v>
+        <v>374</v>
       </c>
       <c r="B174" t="s">
-        <v>374</v>
+        <v>375</v>
       </c>
       <c r="C174" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D174">
         <v>1</v>
@@ -6680,18 +6677,18 @@
         <v>100</v>
       </c>
       <c r="P174" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="175" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>375</v>
+        <v>376</v>
       </c>
       <c r="B175" t="s">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="C175" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D175">
         <v>1</v>
@@ -6703,18 +6700,18 @@
         <v>100</v>
       </c>
       <c r="P175" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="176" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>377</v>
+        <v>378</v>
       </c>
       <c r="B176" t="s">
-        <v>378</v>
+        <v>379</v>
       </c>
       <c r="C176" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D176">
         <v>1</v>
@@ -6726,18 +6723,18 @@
         <v>100</v>
       </c>
       <c r="P176" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="177" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>379</v>
+        <v>380</v>
       </c>
       <c r="B177" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="C177" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D177">
         <v>1</v>
@@ -6749,18 +6746,18 @@
         <v>100</v>
       </c>
       <c r="P177" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="178" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>381</v>
+        <v>382</v>
       </c>
       <c r="B178" t="s">
-        <v>382</v>
+        <v>383</v>
       </c>
       <c r="C178" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D178">
         <v>1</v>
@@ -6772,18 +6769,18 @@
         <v>100</v>
       </c>
       <c r="P178" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="179" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B179" t="s">
-        <v>384</v>
+        <v>385</v>
       </c>
       <c r="C179" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D179">
         <v>1</v>
@@ -6795,41 +6792,41 @@
         <v>100</v>
       </c>
       <c r="P179" t="s">
-        <v>93</v>
+        <v>386</v>
       </c>
     </row>
     <row r="180" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>385</v>
+        <v>387</v>
       </c>
       <c r="B180" t="s">
+        <v>388</v>
+      </c>
+      <c r="C180" t="s">
+        <v>19</v>
+      </c>
+      <c r="D180">
+        <v>1</v>
+      </c>
+      <c r="E180" t="s">
+        <v>20</v>
+      </c>
+      <c r="F180">
+        <v>100</v>
+      </c>
+      <c r="P180" t="s">
         <v>386</v>
-      </c>
-      <c r="C180" t="s">
-        <v>65</v>
-      </c>
-      <c r="D180">
-        <v>1</v>
-      </c>
-      <c r="E180" t="s">
-        <v>20</v>
-      </c>
-      <c r="F180">
-        <v>100</v>
-      </c>
-      <c r="P180" t="s">
-        <v>387</v>
       </c>
     </row>
     <row r="181" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>388</v>
+        <v>389</v>
       </c>
       <c r="B181" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
       <c r="C181" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D181">
         <v>1</v>
@@ -6841,41 +6838,41 @@
         <v>100</v>
       </c>
       <c r="P181" t="s">
-        <v>387</v>
+        <v>391</v>
       </c>
     </row>
     <row r="182" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>390</v>
+        <v>392</v>
       </c>
       <c r="B182" t="s">
+        <v>393</v>
+      </c>
+      <c r="C182" t="s">
+        <v>19</v>
+      </c>
+      <c r="D182">
+        <v>1</v>
+      </c>
+      <c r="E182" t="s">
+        <v>20</v>
+      </c>
+      <c r="F182">
+        <v>100</v>
+      </c>
+      <c r="P182" t="s">
         <v>391</v>
-      </c>
-      <c r="C182" t="s">
-        <v>65</v>
-      </c>
-      <c r="D182">
-        <v>1</v>
-      </c>
-      <c r="E182" t="s">
-        <v>20</v>
-      </c>
-      <c r="F182">
-        <v>100</v>
-      </c>
-      <c r="P182" t="s">
-        <v>392</v>
       </c>
     </row>
     <row r="183" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="B183" t="s">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="C183" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D183">
         <v>1</v>
@@ -6887,18 +6884,18 @@
         <v>100</v>
       </c>
       <c r="P183" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="184" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="B184" t="s">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="C184" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D184">
         <v>1</v>
@@ -6910,18 +6907,18 @@
         <v>100</v>
       </c>
       <c r="P184" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
     </row>
     <row r="185" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="B185" t="s">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="C185" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D185">
         <v>1</v>
@@ -6933,41 +6930,41 @@
         <v>100</v>
       </c>
       <c r="P185" t="s">
-        <v>392</v>
+        <v>400</v>
       </c>
     </row>
     <row r="186" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B186" t="s">
+        <v>402</v>
+      </c>
+      <c r="C186" t="s">
+        <v>19</v>
+      </c>
+      <c r="D186">
+        <v>1</v>
+      </c>
+      <c r="E186" t="s">
+        <v>20</v>
+      </c>
+      <c r="F186">
+        <v>100</v>
+      </c>
+      <c r="P186" t="s">
         <v>400</v>
-      </c>
-      <c r="C186" t="s">
-        <v>65</v>
-      </c>
-      <c r="D186">
-        <v>1</v>
-      </c>
-      <c r="E186" t="s">
-        <v>20</v>
-      </c>
-      <c r="F186">
-        <v>100</v>
-      </c>
-      <c r="P186" t="s">
-        <v>401</v>
       </c>
     </row>
     <row r="187" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>402</v>
+        <v>403</v>
       </c>
       <c r="B187" t="s">
-        <v>403</v>
+        <v>404</v>
       </c>
       <c r="C187" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D187">
         <v>1</v>
@@ -6979,41 +6976,41 @@
         <v>100</v>
       </c>
       <c r="P187" t="s">
-        <v>401</v>
+        <v>405</v>
       </c>
     </row>
     <row r="188" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B188" t="s">
+        <v>407</v>
+      </c>
+      <c r="C188" t="s">
+        <v>19</v>
+      </c>
+      <c r="D188">
+        <v>1</v>
+      </c>
+      <c r="E188" t="s">
+        <v>20</v>
+      </c>
+      <c r="F188">
+        <v>100</v>
+      </c>
+      <c r="P188" t="s">
         <v>405</v>
-      </c>
-      <c r="C188" t="s">
-        <v>65</v>
-      </c>
-      <c r="D188">
-        <v>1</v>
-      </c>
-      <c r="E188" t="s">
-        <v>20</v>
-      </c>
-      <c r="F188">
-        <v>100</v>
-      </c>
-      <c r="P188" t="s">
-        <v>406</v>
       </c>
     </row>
     <row r="189" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="B189" t="s">
-        <v>408</v>
+        <v>409</v>
       </c>
       <c r="C189" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D189">
         <v>1</v>
@@ -7025,18 +7022,18 @@
         <v>100</v>
       </c>
       <c r="P189" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
     </row>
     <row r="190" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>409</v>
+        <v>410</v>
       </c>
       <c r="B190" t="s">
-        <v>410</v>
+        <v>411</v>
       </c>
       <c r="C190" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D190">
         <v>1</v>
@@ -7048,18 +7045,18 @@
         <v>100</v>
       </c>
       <c r="P190" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="191" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>411</v>
+        <v>412</v>
       </c>
       <c r="B191" t="s">
-        <v>412</v>
+        <v>413</v>
       </c>
       <c r="C191" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D191">
         <v>1</v>
@@ -7071,18 +7068,18 @@
         <v>100</v>
       </c>
       <c r="P191" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="192" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>413</v>
+        <v>414</v>
       </c>
       <c r="B192" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="C192" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D192">
         <v>1</v>
@@ -7094,18 +7091,18 @@
         <v>100</v>
       </c>
       <c r="P192" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="193" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="B193" t="s">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="C193" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D193">
         <v>1</v>
@@ -7117,41 +7114,41 @@
         <v>100</v>
       </c>
       <c r="P193" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="194" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>417</v>
+        <v>419</v>
       </c>
       <c r="B194" t="s">
+        <v>420</v>
+      </c>
+      <c r="C194" t="s">
+        <v>19</v>
+      </c>
+      <c r="D194">
+        <v>1</v>
+      </c>
+      <c r="E194" t="s">
+        <v>20</v>
+      </c>
+      <c r="F194">
+        <v>100</v>
+      </c>
+      <c r="P194" t="s">
         <v>418</v>
-      </c>
-      <c r="C194" t="s">
-        <v>65</v>
-      </c>
-      <c r="D194">
-        <v>1</v>
-      </c>
-      <c r="E194" t="s">
-        <v>20</v>
-      </c>
-      <c r="F194">
-        <v>100</v>
-      </c>
-      <c r="P194" t="s">
-        <v>419</v>
       </c>
     </row>
     <row r="195" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="B195" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C195" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D195">
         <v>1</v>
@@ -7163,41 +7160,41 @@
         <v>100</v>
       </c>
       <c r="P195" t="s">
-        <v>419</v>
+        <v>423</v>
       </c>
     </row>
     <row r="196" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>422</v>
+        <v>424</v>
       </c>
       <c r="B196" t="s">
+        <v>425</v>
+      </c>
+      <c r="C196" t="s">
+        <v>19</v>
+      </c>
+      <c r="D196">
+        <v>1</v>
+      </c>
+      <c r="E196" t="s">
+        <v>20</v>
+      </c>
+      <c r="F196">
+        <v>100</v>
+      </c>
+      <c r="P196" t="s">
         <v>423</v>
-      </c>
-      <c r="C196" t="s">
-        <v>65</v>
-      </c>
-      <c r="D196">
-        <v>1</v>
-      </c>
-      <c r="E196" t="s">
-        <v>20</v>
-      </c>
-      <c r="F196">
-        <v>100</v>
-      </c>
-      <c r="P196" t="s">
-        <v>424</v>
       </c>
     </row>
     <row r="197" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="B197" t="s">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="C197" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D197">
         <v>1</v>
@@ -7209,18 +7206,18 @@
         <v>100</v>
       </c>
       <c r="P197" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="198" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>427</v>
+        <v>428</v>
       </c>
       <c r="B198" t="s">
-        <v>428</v>
+        <v>429</v>
       </c>
       <c r="C198" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D198">
         <v>1</v>
@@ -7232,18 +7229,18 @@
         <v>100</v>
       </c>
       <c r="P198" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
     </row>
     <row r="199" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="B199" t="s">
-        <v>430</v>
+        <v>431</v>
       </c>
       <c r="C199" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D199">
         <v>1</v>
@@ -7255,18 +7252,18 @@
         <v>100</v>
       </c>
       <c r="P199" t="s">
-        <v>424</v>
+        <v>400</v>
       </c>
     </row>
     <row r="200" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>431</v>
+        <v>432</v>
       </c>
       <c r="B200" t="s">
-        <v>432</v>
+        <v>433</v>
       </c>
       <c r="C200" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D200">
         <v>1</v>
@@ -7278,18 +7275,18 @@
         <v>100</v>
       </c>
       <c r="P200" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="201" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>433</v>
+        <v>434</v>
       </c>
       <c r="B201" t="s">
-        <v>434</v>
+        <v>435</v>
       </c>
       <c r="C201" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D201">
         <v>1</v>
@@ -7301,18 +7298,18 @@
         <v>100</v>
       </c>
       <c r="P201" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="202" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>435</v>
+        <v>436</v>
       </c>
       <c r="B202" t="s">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="C202" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D202">
         <v>1</v>
@@ -7324,18 +7321,18 @@
         <v>100</v>
       </c>
       <c r="P202" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="203" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>437</v>
+        <v>438</v>
       </c>
       <c r="B203" t="s">
-        <v>438</v>
+        <v>439</v>
       </c>
       <c r="C203" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D203">
         <v>1</v>
@@ -7347,18 +7344,18 @@
         <v>100</v>
       </c>
       <c r="P203" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="204" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>439</v>
+        <v>440</v>
       </c>
       <c r="B204" t="s">
-        <v>440</v>
+        <v>441</v>
       </c>
       <c r="C204" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D204">
         <v>1</v>
@@ -7370,18 +7367,18 @@
         <v>100</v>
       </c>
       <c r="P204" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="205" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>441</v>
+        <v>442</v>
       </c>
       <c r="B205" t="s">
-        <v>442</v>
+        <v>443</v>
       </c>
       <c r="C205" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D205">
         <v>1</v>
@@ -7393,18 +7390,18 @@
         <v>100</v>
       </c>
       <c r="P205" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="206" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>443</v>
+        <v>444</v>
       </c>
       <c r="B206" t="s">
-        <v>444</v>
+        <v>445</v>
       </c>
       <c r="C206" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D206">
         <v>1</v>
@@ -7416,18 +7413,18 @@
         <v>100</v>
       </c>
       <c r="P206" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="207" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>445</v>
+        <v>446</v>
       </c>
       <c r="B207" t="s">
-        <v>446</v>
+        <v>447</v>
       </c>
       <c r="C207" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D207">
         <v>1</v>
@@ -7439,18 +7436,18 @@
         <v>100</v>
       </c>
       <c r="P207" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="208" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>447</v>
+        <v>448</v>
       </c>
       <c r="B208" t="s">
-        <v>448</v>
+        <v>449</v>
       </c>
       <c r="C208" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D208">
         <v>1</v>
@@ -7462,18 +7459,18 @@
         <v>100</v>
       </c>
       <c r="P208" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="209" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>449</v>
+        <v>450</v>
       </c>
       <c r="B209" t="s">
-        <v>450</v>
+        <v>451</v>
       </c>
       <c r="C209" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D209">
         <v>1</v>
@@ -7485,18 +7482,18 @@
         <v>100</v>
       </c>
       <c r="P209" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="210" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>451</v>
+        <v>452</v>
       </c>
       <c r="B210" t="s">
-        <v>452</v>
+        <v>453</v>
       </c>
       <c r="C210" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D210">
         <v>1</v>
@@ -7508,18 +7505,18 @@
         <v>100</v>
       </c>
       <c r="P210" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="211" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="B211" t="s">
-        <v>454</v>
+        <v>455</v>
       </c>
       <c r="C211" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D211">
         <v>1</v>
@@ -7531,18 +7528,18 @@
         <v>100</v>
       </c>
       <c r="P211" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="212" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>455</v>
+        <v>456</v>
       </c>
       <c r="B212" t="s">
-        <v>456</v>
+        <v>457</v>
       </c>
       <c r="C212" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D212">
         <v>1</v>
@@ -7554,18 +7551,18 @@
         <v>100</v>
       </c>
       <c r="P212" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="213" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>457</v>
+        <v>458</v>
       </c>
       <c r="B213" t="s">
-        <v>458</v>
+        <v>459</v>
       </c>
       <c r="C213" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D213">
         <v>1</v>
@@ -7577,41 +7574,41 @@
         <v>100</v>
       </c>
       <c r="P213" t="s">
-        <v>401</v>
+        <v>460</v>
       </c>
     </row>
     <row r="214" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>459</v>
+        <v>461</v>
       </c>
       <c r="B214" t="s">
+        <v>462</v>
+      </c>
+      <c r="C214" t="s">
+        <v>19</v>
+      </c>
+      <c r="D214">
+        <v>1</v>
+      </c>
+      <c r="E214" t="s">
+        <v>20</v>
+      </c>
+      <c r="F214">
+        <v>100</v>
+      </c>
+      <c r="P214" t="s">
         <v>460</v>
-      </c>
-      <c r="C214" t="s">
-        <v>65</v>
-      </c>
-      <c r="D214">
-        <v>1</v>
-      </c>
-      <c r="E214" t="s">
-        <v>20</v>
-      </c>
-      <c r="F214">
-        <v>100</v>
-      </c>
-      <c r="P214" t="s">
-        <v>461</v>
       </c>
     </row>
     <row r="215" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>462</v>
+        <v>463</v>
       </c>
       <c r="B215" t="s">
-        <v>463</v>
+        <v>464</v>
       </c>
       <c r="C215" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D215">
         <v>1</v>
@@ -7623,18 +7620,18 @@
         <v>100</v>
       </c>
       <c r="P215" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="216" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>464</v>
+        <v>465</v>
       </c>
       <c r="B216" t="s">
-        <v>465</v>
+        <v>466</v>
       </c>
       <c r="C216" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D216">
         <v>1</v>
@@ -7646,18 +7643,18 @@
         <v>100</v>
       </c>
       <c r="P216" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="217" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="B217" t="s">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="C217" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D217">
         <v>1</v>
@@ -7669,18 +7666,18 @@
         <v>100</v>
       </c>
       <c r="P217" t="s">
-        <v>461</v>
+        <v>418</v>
       </c>
     </row>
     <row r="218" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>468</v>
+        <v>469</v>
       </c>
       <c r="B218" t="s">
-        <v>469</v>
+        <v>470</v>
       </c>
       <c r="C218" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D218">
         <v>1</v>
@@ -7692,18 +7689,18 @@
         <v>100</v>
       </c>
       <c r="P218" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="219" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>470</v>
+        <v>471</v>
       </c>
       <c r="B219" t="s">
-        <v>471</v>
+        <v>472</v>
       </c>
       <c r="C219" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D219">
         <v>1</v>
@@ -7715,18 +7712,18 @@
         <v>100</v>
       </c>
       <c r="P219" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="220" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="B220" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="C220" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D220">
         <v>1</v>
@@ -7738,18 +7735,18 @@
         <v>100</v>
       </c>
       <c r="P220" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="221" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>474</v>
+        <v>475</v>
       </c>
       <c r="B221" t="s">
-        <v>475</v>
+        <v>476</v>
       </c>
       <c r="C221" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D221">
         <v>1</v>
@@ -7761,18 +7758,18 @@
         <v>100</v>
       </c>
       <c r="P221" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="222" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>476</v>
+        <v>477</v>
       </c>
       <c r="B222" t="s">
-        <v>477</v>
+        <v>478</v>
       </c>
       <c r="C222" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D222">
         <v>1</v>
@@ -7784,18 +7781,18 @@
         <v>100</v>
       </c>
       <c r="P222" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="223" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>478</v>
+        <v>479</v>
       </c>
       <c r="B223" t="s">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="C223" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D223">
         <v>1</v>
@@ -7807,18 +7804,18 @@
         <v>100</v>
       </c>
       <c r="P223" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="224" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>480</v>
+        <v>481</v>
       </c>
       <c r="B224" t="s">
-        <v>481</v>
+        <v>482</v>
       </c>
       <c r="C224" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D224">
         <v>1</v>
@@ -7830,18 +7827,18 @@
         <v>100</v>
       </c>
       <c r="P224" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="225" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>482</v>
+        <v>483</v>
       </c>
       <c r="B225" t="s">
-        <v>483</v>
+        <v>484</v>
       </c>
       <c r="C225" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D225">
         <v>1</v>
@@ -7853,18 +7850,18 @@
         <v>100</v>
       </c>
       <c r="P225" t="s">
-        <v>419</v>
+        <v>400</v>
       </c>
     </row>
     <row r="226" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>484</v>
+        <v>485</v>
       </c>
       <c r="B226" t="s">
-        <v>485</v>
+        <v>486</v>
       </c>
       <c r="C226" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D226">
         <v>1</v>
@@ -7876,18 +7873,18 @@
         <v>100</v>
       </c>
       <c r="P226" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="227" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>486</v>
+        <v>487</v>
       </c>
       <c r="B227" t="s">
-        <v>487</v>
+        <v>488</v>
       </c>
       <c r="C227" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D227">
         <v>1</v>
@@ -7899,18 +7896,18 @@
         <v>100</v>
       </c>
       <c r="P227" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="228" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>488</v>
+        <v>489</v>
       </c>
       <c r="B228" t="s">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="C228" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D228">
         <v>1</v>
@@ -7922,18 +7919,18 @@
         <v>100</v>
       </c>
       <c r="P228" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="229" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="B229" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="C229" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D229">
         <v>1</v>
@@ -7945,18 +7942,18 @@
         <v>100</v>
       </c>
       <c r="P229" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="230" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>492</v>
+        <v>493</v>
       </c>
       <c r="B230" t="s">
-        <v>493</v>
+        <v>494</v>
       </c>
       <c r="C230" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D230">
         <v>1</v>
@@ -7968,18 +7965,18 @@
         <v>100</v>
       </c>
       <c r="P230" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="231" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>494</v>
+        <v>495</v>
       </c>
       <c r="B231" t="s">
-        <v>495</v>
+        <v>496</v>
       </c>
       <c r="C231" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D231">
         <v>1</v>
@@ -7991,18 +7988,18 @@
         <v>100</v>
       </c>
       <c r="P231" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="232" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>496</v>
+        <v>497</v>
       </c>
       <c r="B232" t="s">
-        <v>497</v>
+        <v>498</v>
       </c>
       <c r="C232" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D232">
         <v>1</v>
@@ -8014,18 +8011,18 @@
         <v>100</v>
       </c>
       <c r="P232" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="233" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>498</v>
+        <v>499</v>
       </c>
       <c r="B233" t="s">
-        <v>499</v>
+        <v>500</v>
       </c>
       <c r="C233" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D233">
         <v>1</v>
@@ -8037,18 +8034,18 @@
         <v>100</v>
       </c>
       <c r="P233" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="234" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="B234" t="s">
-        <v>501</v>
+        <v>502</v>
       </c>
       <c r="C234" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D234">
         <v>1</v>
@@ -8060,18 +8057,18 @@
         <v>100</v>
       </c>
       <c r="P234" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="235" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="B235" t="s">
-        <v>503</v>
+        <v>504</v>
       </c>
       <c r="C235" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D235">
         <v>1</v>
@@ -8083,18 +8080,18 @@
         <v>100</v>
       </c>
       <c r="P235" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="236" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>504</v>
+        <v>505</v>
       </c>
       <c r="B236" t="s">
-        <v>505</v>
+        <v>506</v>
       </c>
       <c r="C236" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D236">
         <v>1</v>
@@ -8106,18 +8103,18 @@
         <v>100</v>
       </c>
       <c r="P236" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="237" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="B237" t="s">
-        <v>507</v>
+        <v>508</v>
       </c>
       <c r="C237" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D237">
         <v>1</v>
@@ -8129,18 +8126,18 @@
         <v>100</v>
       </c>
       <c r="P237" t="s">
-        <v>401</v>
+        <v>418</v>
       </c>
     </row>
     <row r="238" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>508</v>
+        <v>509</v>
       </c>
       <c r="B238" t="s">
-        <v>509</v>
+        <v>510</v>
       </c>
       <c r="C238" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D238">
         <v>1</v>
@@ -8152,18 +8149,18 @@
         <v>100</v>
       </c>
       <c r="P238" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="239" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>510</v>
+        <v>511</v>
       </c>
       <c r="B239" t="s">
-        <v>511</v>
+        <v>512</v>
       </c>
       <c r="C239" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D239">
         <v>1</v>
@@ -8175,18 +8172,18 @@
         <v>100</v>
       </c>
       <c r="P239" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="240" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>512</v>
+        <v>513</v>
       </c>
       <c r="B240" t="s">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="C240" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D240">
         <v>1</v>
@@ -8198,18 +8195,18 @@
         <v>100</v>
       </c>
       <c r="P240" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="241" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="B241" t="s">
-        <v>515</v>
+        <v>516</v>
       </c>
       <c r="C241" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D241">
         <v>1</v>
@@ -8221,18 +8218,18 @@
         <v>100</v>
       </c>
       <c r="P241" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="242" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>516</v>
+        <v>517</v>
       </c>
       <c r="B242" t="s">
-        <v>517</v>
+        <v>518</v>
       </c>
       <c r="C242" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D242">
         <v>1</v>
@@ -8244,18 +8241,18 @@
         <v>100</v>
       </c>
       <c r="P242" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
     </row>
     <row r="243" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>518</v>
+        <v>519</v>
       </c>
       <c r="B243" t="s">
-        <v>519</v>
+        <v>520</v>
       </c>
       <c r="C243" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D243">
         <v>1</v>
@@ -8267,41 +8264,41 @@
         <v>100</v>
       </c>
       <c r="P243" t="s">
-        <v>419</v>
+        <v>521</v>
       </c>
     </row>
     <row r="244" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="B244" t="s">
+        <v>523</v>
+      </c>
+      <c r="C244" t="s">
+        <v>19</v>
+      </c>
+      <c r="D244">
+        <v>1</v>
+      </c>
+      <c r="E244" t="s">
+        <v>20</v>
+      </c>
+      <c r="F244">
+        <v>100</v>
+      </c>
+      <c r="P244" t="s">
         <v>521</v>
-      </c>
-      <c r="C244" t="s">
-        <v>65</v>
-      </c>
-      <c r="D244">
-        <v>1</v>
-      </c>
-      <c r="E244" t="s">
-        <v>20</v>
-      </c>
-      <c r="F244">
-        <v>100</v>
-      </c>
-      <c r="P244" t="s">
-        <v>522</v>
       </c>
     </row>
     <row r="245" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>523</v>
+        <v>524</v>
       </c>
       <c r="B245" t="s">
-        <v>524</v>
+        <v>525</v>
       </c>
       <c r="C245" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D245">
         <v>1</v>
@@ -8313,41 +8310,41 @@
         <v>100</v>
       </c>
       <c r="P245" t="s">
-        <v>522</v>
+        <v>65</v>
       </c>
     </row>
     <row r="246" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>525</v>
+        <v>526</v>
       </c>
       <c r="B246" t="s">
-        <v>526</v>
+        <v>527</v>
       </c>
       <c r="C246" t="s">
+        <v>19</v>
+      </c>
+      <c r="D246">
+        <v>1</v>
+      </c>
+      <c r="E246" t="s">
+        <v>20</v>
+      </c>
+      <c r="F246">
+        <v>100</v>
+      </c>
+      <c r="P246" t="s">
         <v>65</v>
-      </c>
-      <c r="D246">
-        <v>1</v>
-      </c>
-      <c r="E246" t="s">
-        <v>20</v>
-      </c>
-      <c r="F246">
-        <v>100</v>
-      </c>
-      <c r="P246" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="247" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>527</v>
+        <v>528</v>
       </c>
       <c r="B247" t="s">
-        <v>528</v>
+        <v>529</v>
       </c>
       <c r="C247" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D247">
         <v>1</v>
@@ -8359,18 +8356,18 @@
         <v>100</v>
       </c>
       <c r="P247" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="248" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>529</v>
+        <v>530</v>
       </c>
       <c r="B248" t="s">
-        <v>530</v>
+        <v>531</v>
       </c>
       <c r="C248" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D248">
         <v>1</v>
@@ -8382,18 +8379,18 @@
         <v>100</v>
       </c>
       <c r="P248" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="249" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B249" t="s">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="C249" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D249">
         <v>1</v>
@@ -8405,18 +8402,18 @@
         <v>100</v>
       </c>
       <c r="P249" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="250" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B250" t="s">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="C250" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D250">
         <v>1</v>
@@ -8428,18 +8425,18 @@
         <v>100</v>
       </c>
       <c r="P250" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="251" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>535</v>
+        <v>536</v>
       </c>
       <c r="B251" t="s">
-        <v>536</v>
+        <v>537</v>
       </c>
       <c r="C251" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D251">
         <v>1</v>
@@ -8451,18 +8448,18 @@
         <v>100</v>
       </c>
       <c r="P251" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="252" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>537</v>
+        <v>538</v>
       </c>
       <c r="B252" t="s">
-        <v>538</v>
+        <v>539</v>
       </c>
       <c r="C252" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D252">
         <v>1</v>
@@ -8474,18 +8471,18 @@
         <v>100</v>
       </c>
       <c r="P252" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="253" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>539</v>
+        <v>540</v>
       </c>
       <c r="B253" t="s">
-        <v>540</v>
+        <v>541</v>
       </c>
       <c r="C253" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D253">
         <v>1</v>
@@ -8497,18 +8494,18 @@
         <v>100</v>
       </c>
       <c r="P253" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="254" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>541</v>
+        <v>542</v>
       </c>
       <c r="B254" t="s">
-        <v>542</v>
+        <v>543</v>
       </c>
       <c r="C254" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D254">
         <v>1</v>
@@ -8520,18 +8517,18 @@
         <v>100</v>
       </c>
       <c r="P254" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="255" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>543</v>
+        <v>544</v>
       </c>
       <c r="B255" t="s">
-        <v>544</v>
+        <v>545</v>
       </c>
       <c r="C255" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D255">
         <v>1</v>
@@ -8543,18 +8540,18 @@
         <v>100</v>
       </c>
       <c r="P255" t="s">
-        <v>84</v>
+        <v>70</v>
       </c>
     </row>
     <row r="256" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>545</v>
+        <v>546</v>
       </c>
       <c r="B256" t="s">
-        <v>546</v>
+        <v>547</v>
       </c>
       <c r="C256" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D256">
         <v>1</v>
@@ -8566,18 +8563,18 @@
         <v>100</v>
       </c>
       <c r="P256" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="257" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>547</v>
+        <v>548</v>
       </c>
       <c r="B257" t="s">
-        <v>548</v>
+        <v>549</v>
       </c>
       <c r="C257" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D257">
         <v>1</v>
@@ -8589,18 +8586,18 @@
         <v>100</v>
       </c>
       <c r="P257" t="s">
-        <v>71</v>
+        <v>521</v>
       </c>
     </row>
     <row r="258" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>549</v>
+        <v>550</v>
       </c>
       <c r="B258" t="s">
-        <v>550</v>
+        <v>551</v>
       </c>
       <c r="C258" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D258">
         <v>1</v>
@@ -8612,18 +8609,18 @@
         <v>100</v>
       </c>
       <c r="P258" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
     <row r="259" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>551</v>
+        <v>552</v>
       </c>
       <c r="B259" t="s">
-        <v>552</v>
+        <v>553</v>
       </c>
       <c r="C259" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D259">
         <v>1</v>
@@ -8635,41 +8632,41 @@
         <v>100</v>
       </c>
       <c r="P259" t="s">
-        <v>522</v>
+        <v>65</v>
       </c>
     </row>
     <row r="260" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>553</v>
+        <v>554</v>
       </c>
       <c r="B260" t="s">
-        <v>554</v>
+        <v>555</v>
       </c>
       <c r="C260" t="s">
+        <v>19</v>
+      </c>
+      <c r="D260">
+        <v>1</v>
+      </c>
+      <c r="E260" t="s">
+        <v>20</v>
+      </c>
+      <c r="F260">
+        <v>100</v>
+      </c>
+      <c r="P260" t="s">
         <v>65</v>
-      </c>
-      <c r="D260">
-        <v>1</v>
-      </c>
-      <c r="E260" t="s">
-        <v>20</v>
-      </c>
-      <c r="F260">
-        <v>100</v>
-      </c>
-      <c r="P260" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="261" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>555</v>
+        <v>556</v>
       </c>
       <c r="B261" t="s">
-        <v>556</v>
+        <v>557</v>
       </c>
       <c r="C261" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D261">
         <v>1</v>
@@ -8681,18 +8678,18 @@
         <v>100</v>
       </c>
       <c r="P261" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="262" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>557</v>
+        <v>558</v>
       </c>
       <c r="B262" t="s">
-        <v>558</v>
+        <v>559</v>
       </c>
       <c r="C262" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D262">
         <v>1</v>
@@ -8704,18 +8701,18 @@
         <v>100</v>
       </c>
       <c r="P262" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="263" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>559</v>
+        <v>560</v>
       </c>
       <c r="B263" t="s">
-        <v>560</v>
+        <v>561</v>
       </c>
       <c r="C263" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D263">
         <v>1</v>
@@ -8727,18 +8724,18 @@
         <v>100</v>
       </c>
       <c r="P263" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="264" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>561</v>
+        <v>562</v>
       </c>
       <c r="B264" t="s">
-        <v>562</v>
+        <v>563</v>
       </c>
       <c r="C264" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D264">
         <v>1</v>
@@ -8750,18 +8747,18 @@
         <v>100</v>
       </c>
       <c r="P264" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="265" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>563</v>
+        <v>564</v>
       </c>
       <c r="B265" t="s">
-        <v>564</v>
+        <v>565</v>
       </c>
       <c r="C265" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D265">
         <v>1</v>
@@ -8773,18 +8770,18 @@
         <v>100</v>
       </c>
       <c r="P265" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="266" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>565</v>
+        <v>566</v>
       </c>
       <c r="B266" t="s">
-        <v>566</v>
+        <v>567</v>
       </c>
       <c r="C266" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D266">
         <v>1</v>
@@ -8796,18 +8793,18 @@
         <v>100</v>
       </c>
       <c r="P266" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="267" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>567</v>
+        <v>568</v>
       </c>
       <c r="B267" t="s">
-        <v>568</v>
+        <v>569</v>
       </c>
       <c r="C267" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D267">
         <v>1</v>
@@ -8819,18 +8816,18 @@
         <v>100</v>
       </c>
       <c r="P267" t="s">
-        <v>71</v>
+        <v>83</v>
       </c>
     </row>
     <row r="268" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>569</v>
+        <v>570</v>
       </c>
       <c r="B268" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="C268" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D268">
         <v>1</v>
@@ -8842,18 +8839,18 @@
         <v>100</v>
       </c>
       <c r="P268" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="269" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>571</v>
+        <v>572</v>
       </c>
       <c r="B269" t="s">
-        <v>572</v>
+        <v>573</v>
       </c>
       <c r="C269" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D269">
         <v>1</v>
@@ -8865,18 +8862,18 @@
         <v>100</v>
       </c>
       <c r="P269" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="270" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>573</v>
+        <v>574</v>
       </c>
       <c r="B270" t="s">
-        <v>574</v>
+        <v>575</v>
       </c>
       <c r="C270" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D270">
         <v>1</v>
@@ -8888,18 +8885,18 @@
         <v>100</v>
       </c>
       <c r="P270" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="271" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>575</v>
+        <v>576</v>
       </c>
       <c r="B271" t="s">
-        <v>576</v>
+        <v>577</v>
       </c>
       <c r="C271" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D271">
         <v>1</v>
@@ -8911,18 +8908,18 @@
         <v>100</v>
       </c>
       <c r="P271" t="s">
-        <v>84</v>
+        <v>92</v>
       </c>
     </row>
     <row r="272" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>577</v>
+        <v>578</v>
       </c>
       <c r="B272" t="s">
-        <v>578</v>
+        <v>579</v>
       </c>
       <c r="C272" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D272">
         <v>1</v>
@@ -8934,18 +8931,18 @@
         <v>100</v>
       </c>
       <c r="P272" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="273" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>579</v>
+        <v>580</v>
       </c>
       <c r="B273" t="s">
-        <v>580</v>
+        <v>581</v>
       </c>
       <c r="C273" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D273">
         <v>1</v>
@@ -8957,18 +8954,18 @@
         <v>100</v>
       </c>
       <c r="P273" t="s">
-        <v>93</v>
+        <v>70</v>
       </c>
     </row>
     <row r="274" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>581</v>
+        <v>582</v>
       </c>
       <c r="B274" t="s">
-        <v>582</v>
+        <v>583</v>
       </c>
       <c r="C274" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D274">
         <v>1</v>
@@ -8980,18 +8977,18 @@
         <v>100</v>
       </c>
       <c r="P274" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="275" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>583</v>
+        <v>584</v>
       </c>
       <c r="B275" t="s">
-        <v>584</v>
+        <v>585</v>
       </c>
       <c r="C275" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D275">
         <v>1</v>
@@ -9003,18 +9000,18 @@
         <v>100</v>
       </c>
       <c r="P275" t="s">
-        <v>71</v>
+        <v>400</v>
       </c>
     </row>
     <row r="276" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>585</v>
+        <v>586</v>
       </c>
       <c r="B276" t="s">
-        <v>586</v>
+        <v>587</v>
       </c>
       <c r="C276" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D276">
         <v>1</v>
@@ -9026,18 +9023,18 @@
         <v>100</v>
       </c>
       <c r="P276" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="277" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>587</v>
+        <v>588</v>
       </c>
       <c r="B277" t="s">
-        <v>588</v>
+        <v>589</v>
       </c>
       <c r="C277" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D277">
         <v>1</v>
@@ -9049,18 +9046,18 @@
         <v>100</v>
       </c>
       <c r="P277" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="278" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>589</v>
+        <v>590</v>
       </c>
       <c r="B278" t="s">
-        <v>590</v>
+        <v>591</v>
       </c>
       <c r="C278" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D278">
         <v>1</v>
@@ -9072,18 +9069,18 @@
         <v>100</v>
       </c>
       <c r="P278" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="279" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>591</v>
+        <v>592</v>
       </c>
       <c r="B279" t="s">
-        <v>592</v>
+        <v>593</v>
       </c>
       <c r="C279" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D279">
         <v>1</v>
@@ -9095,18 +9092,18 @@
         <v>100</v>
       </c>
       <c r="P279" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="280" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>593</v>
+        <v>594</v>
       </c>
       <c r="B280" t="s">
-        <v>594</v>
+        <v>595</v>
       </c>
       <c r="C280" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D280">
         <v>1</v>
@@ -9118,18 +9115,18 @@
         <v>100</v>
       </c>
       <c r="P280" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
     </row>
     <row r="281" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>595</v>
+        <v>596</v>
       </c>
       <c r="B281" t="s">
-        <v>596</v>
+        <v>597</v>
       </c>
       <c r="C281" t="s">
-        <v>19</v>
+        <v>64</v>
       </c>
       <c r="D281">
         <v>1</v>
@@ -9141,18 +9138,18 @@
         <v>100</v>
       </c>
       <c r="P281" t="s">
-        <v>401</v>
+        <v>521</v>
       </c>
     </row>
     <row r="282" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>597</v>
+        <v>598</v>
       </c>
       <c r="B282" t="s">
-        <v>598</v>
+        <v>599</v>
       </c>
       <c r="C282" t="s">
-        <v>65</v>
+        <v>19</v>
       </c>
       <c r="D282">
         <v>1</v>
@@ -9164,30 +9161,7 @@
         <v>100</v>
       </c>
       <c r="P282" t="s">
-        <v>522</v>
-      </c>
-    </row>
-    <row r="283" spans="1:16" x14ac:dyDescent="0.3">
-      <c r="A283" t="s">
-        <v>599</v>
-      </c>
-      <c r="B283" t="s">
-        <v>600</v>
-      </c>
-      <c r="C283" t="s">
-        <v>19</v>
-      </c>
-      <c r="D283">
-        <v>1</v>
-      </c>
-      <c r="E283" t="s">
-        <v>20</v>
-      </c>
-      <c r="F283">
-        <v>100</v>
-      </c>
-      <c r="P283" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
     </row>
   </sheetData>
